--- a/ProbEstat_aula02.xlsx
+++ b/ProbEstat_aula02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1002250719\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F569D4-7E92-4D8B-AEAC-7C5D08257AB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF9B217-40CE-4612-847F-2625238E2FF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{114D04F1-CC71-4AD4-A472-81AA882002B5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{114D04F1-CC71-4AD4-A472-81AA882002B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Ex. 2.1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t xml:space="preserve">1.Os sistemas de escapamento de uma aeronave funcionam devido a um propelente sólido. A taxa de queima desse propelente é uma característica importante do produto. As especificações requerem que a taxa média de queima seja de 50 cm/s.  Sabemos que o desvio-padrão da taxa de queima é  σ= 2 cm/s. A analista decide especificar uma probabilidade do erro tipo I, ou nível de significância, de ∝= 0,05. Ela seleciona uma amostra aleatória de n=25 e obtém uma taxa média amostral de queima de x = 51,3 cm/s. Que conclusões poderiam ser tiradas? </t>
   </si>
@@ -112,12 +112,54 @@
   <si>
     <t>tcalc</t>
   </si>
+  <si>
+    <t>Teste-t: duas amostras presumindo variâncias equivalentes</t>
+  </si>
+  <si>
+    <t>Variável 1</t>
+  </si>
+  <si>
+    <t>Variável 2</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Variância</t>
+  </si>
+  <si>
+    <t>Observações</t>
+  </si>
+  <si>
+    <t>Variância agrupada</t>
+  </si>
+  <si>
+    <t>Hipótese da diferença de média</t>
+  </si>
+  <si>
+    <t>gl</t>
+  </si>
+  <si>
+    <t>Stat t</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) uni-caudal</t>
+  </si>
+  <si>
+    <t>t crítico uni-caudal</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) bi-caudal</t>
+  </si>
+  <si>
+    <t>t crítico bi-caudal</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,16 +188,30 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -192,11 +248,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -221,20 +297,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -740,22 +822,22 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:12" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C4">
@@ -773,7 +855,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C5">
@@ -787,7 +869,7 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C6">
@@ -802,7 +884,7 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C7">
@@ -817,7 +899,7 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C8">
@@ -869,12 +951,12 @@
       <c r="K15" s="14"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -893,7 +975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A730B54-90C9-4051-8F1B-46810C634F62}">
   <dimension ref="B2:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
@@ -903,18 +985,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
     </row>
     <row r="3" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
@@ -933,7 +1015,7 @@
       <c r="F4" s="1">
         <v>15.4</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="10" t="s">
         <v>10</v>
       </c>
       <c r="J4">
@@ -966,7 +1048,7 @@
       <c r="F5" s="2">
         <v>11.4</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="J5">
@@ -993,7 +1075,7 @@
         <v>11.9</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="10" t="s">
         <v>8</v>
       </c>
       <c r="J6">
@@ -1021,13 +1103,13 @@
         <v>15.8</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="J7">
         <v>22</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="11" t="s">
         <v>24</v>
       </c>
       <c r="M7">
@@ -1049,7 +1131,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="10" t="s">
         <v>11</v>
       </c>
       <c r="J8">
@@ -1101,12 +1183,12 @@
       <c r="R15" s="14"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="O16" s="13" t="s">
+      <c r="O16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1125,31 +1207,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA34C50-7CA0-4317-9157-4F45C7C0F170}">
   <dimension ref="B2:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
     <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="194.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
     </row>
     <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1159,14 +1244,18 @@
       <c r="E4" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="2">
         <v>57.9</v>
       </c>
       <c r="E5" s="2">
         <v>66.400000000000006</v>
       </c>
+      <c r="K5" s="19"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D6" s="2">
@@ -1175,6 +1264,13 @@
       <c r="E6" s="2">
         <v>71.099999999999994</v>
       </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D7" s="2">
@@ -1183,6 +1279,15 @@
       <c r="E7" s="2">
         <v>70.3</v>
       </c>
+      <c r="G7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="7">
+        <v>65.220000000000013</v>
+      </c>
+      <c r="I7" s="7">
+        <v>68.39</v>
+      </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D8" s="2">
@@ -1191,7 +1296,15 @@
       <c r="E8" s="2">
         <v>69.3</v>
       </c>
-      <c r="I8" s="8"/>
+      <c r="G8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="7">
+        <v>11.863999999999997</v>
+      </c>
+      <c r="I8" s="7">
+        <v>4.6365555555555549</v>
+      </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
@@ -1203,7 +1316,15 @@
       <c r="E9" s="2">
         <v>64.8</v>
       </c>
-      <c r="I9" s="8"/>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>10</v>
+      </c>
+      <c r="I9" s="7">
+        <v>10</v>
+      </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
@@ -1215,7 +1336,13 @@
       <c r="E10" s="2">
         <v>69.900000000000006</v>
       </c>
-      <c r="I10" s="9"/>
+      <c r="G10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="7">
+        <v>8.2502777777777752</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="8"/>
@@ -1226,6 +1353,12 @@
       </c>
       <c r="E11" s="2">
         <v>68.599999999999994</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -1239,6 +1372,12 @@
       <c r="E12" s="2">
         <v>69.400000000000006</v>
       </c>
+      <c r="G12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="7">
+        <v>18</v>
+      </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -1251,6 +1390,12 @@
       <c r="E13" s="2">
         <v>65.3</v>
       </c>
+      <c r="G13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="7">
+        <v>-2.4678001078853598</v>
+      </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
@@ -1263,48 +1408,71 @@
       <c r="E14" s="4">
         <v>68.8</v>
       </c>
+      <c r="G14" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="18">
+        <v>1.192456165781762E-2</v>
+      </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="8"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1.7340636066175394</v>
+      </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="8"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G16" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="18">
+        <v>2.384912331563524E-2</v>
+      </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I17" s="7"/>
+    <row r="17" spans="7:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="16">
+        <v>2.1009220402410378</v>
+      </c>
+      <c r="I17" s="16"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="8"/>
     </row>
-    <row r="18" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I18" s="7"/>
+    <row r="18" spans="7:12" x14ac:dyDescent="0.25">
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:12" x14ac:dyDescent="0.25">
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:12" x14ac:dyDescent="0.25">
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:12" x14ac:dyDescent="0.25">
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
@@ -1315,6 +1483,7 @@
     <mergeCell ref="B2:K2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1329,20 +1498,20 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:13" ht="134.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
